--- a/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
@@ -673,58 +673,58 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>3724</v>
+        <v>3560</v>
       </c>
       <c r="C4">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D4">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="E4">
-        <v>32.97261009667024</v>
+        <v>33.92247191011236</v>
       </c>
       <c r="F4">
-        <v>32.32518796992481</v>
+        <v>32.79885057471265</v>
       </c>
       <c r="G4">
-        <v>34.88063909774436</v>
+        <v>35.40307101727447</v>
       </c>
       <c r="H4">
-        <v>1460</v>
+        <v>1479</v>
       </c>
       <c r="I4">
-        <v>1.189021907321443</v>
+        <v>1.224702725977941</v>
       </c>
       <c r="J4">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K4">
-        <v>5.756818049659825</v>
+        <v>5.788213305297588</v>
       </c>
       <c r="L4">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="M4">
-        <v>3.07978336431978</v>
+        <v>3.109243697478992</v>
       </c>
       <c r="N4">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O4">
-        <v>0.1156445964655102</v>
+        <v>0.1159285879897983</v>
       </c>
       <c r="P4">
         <v>28</v>
       </c>
       <c r="Q4">
-        <v>0.1628190963540153</v>
+        <v>0.1635418491910519</v>
       </c>
       <c r="R4">
         <v>51</v>
       </c>
       <c r="S4">
-        <v>0.1374181553633498</v>
+        <v>0.1382488479262673</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -850,58 +850,58 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>19292</v>
+        <v>12348</v>
       </c>
       <c r="C7">
-        <v>2756</v>
+        <v>2591</v>
       </c>
       <c r="D7">
-        <v>5513</v>
+        <v>4896</v>
       </c>
       <c r="E7">
-        <v>80.29825834542815</v>
+        <v>80.81333009394234</v>
       </c>
       <c r="F7">
-        <v>79.46952104499275</v>
+        <v>78.97414125820147</v>
       </c>
       <c r="G7">
-        <v>80.16433883547978</v>
+        <v>80.28043300653594</v>
       </c>
       <c r="H7">
-        <v>606</v>
+        <v>1241</v>
       </c>
       <c r="I7">
-        <v>0.03911913519598945</v>
+        <v>0.1243632770575308</v>
       </c>
       <c r="J7">
-        <v>856</v>
+        <v>931</v>
       </c>
       <c r="K7">
-        <v>0.3908354564465021</v>
+        <v>0.4549852899492723</v>
       </c>
       <c r="L7">
-        <v>935</v>
+        <v>1074</v>
       </c>
       <c r="M7">
-        <v>0.2115643087617039</v>
+        <v>0.2732455928335364</v>
       </c>
       <c r="N7">
-        <v>6772</v>
+        <v>4477</v>
       </c>
       <c r="O7">
-        <v>0.4371531081637633</v>
+        <v>0.4486497916088359</v>
       </c>
       <c r="P7">
-        <v>1133</v>
+        <v>1018</v>
       </c>
       <c r="Q7">
-        <v>0.5173090796190267</v>
+        <v>0.4975027123183235</v>
       </c>
       <c r="R7">
-        <v>1734</v>
+        <v>1549</v>
       </c>
       <c r="S7">
-        <v>0.3923556271580691</v>
+        <v>0.3940944351016275</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1027,58 +1027,58 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>31217</v>
+        <v>28204</v>
       </c>
       <c r="C10">
         <v>4459</v>
       </c>
       <c r="D10">
-        <v>8920</v>
+        <v>8915</v>
       </c>
       <c r="E10">
-        <v>161.1930678796809</v>
+        <v>151.6646574953907</v>
       </c>
       <c r="F10">
-        <v>161.5205202960305</v>
+        <v>151.5481049562682</v>
       </c>
       <c r="G10">
-        <v>162.2276905829596</v>
+        <v>152.239596186203</v>
       </c>
       <c r="H10">
-        <v>2557</v>
+        <v>2849</v>
       </c>
       <c r="I10">
-        <v>0.05081514891600973</v>
+        <v>0.06660354642260173</v>
       </c>
       <c r="J10">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="K10">
-        <v>0.2539501818888673</v>
+        <v>0.271252957811508</v>
       </c>
       <c r="L10">
-        <v>2171</v>
+        <v>2180</v>
       </c>
       <c r="M10">
-        <v>0.1500271928606129</v>
+        <v>0.1606229222172447</v>
       </c>
       <c r="N10">
-        <v>74480</v>
+        <v>67628</v>
       </c>
       <c r="O10">
-        <v>1.480137775230506</v>
+        <v>1.580998468749635</v>
       </c>
       <c r="P10">
-        <v>10735</v>
+        <v>10728</v>
       </c>
       <c r="Q10">
-        <v>1.490516786537447</v>
+        <v>1.587562319368172</v>
       </c>
       <c r="R10">
-        <v>21604</v>
+        <v>21588</v>
       </c>
       <c r="S10">
-        <v>1.492946786992483</v>
+        <v>1.590609011388018</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1086,58 +1086,58 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>100307</v>
+        <v>11881</v>
       </c>
       <c r="C11">
-        <v>9079</v>
+        <v>1697</v>
       </c>
       <c r="D11">
-        <v>18286</v>
+        <v>3396</v>
       </c>
       <c r="E11">
-        <v>25.13894344362806</v>
+        <v>23.65002945879976</v>
       </c>
       <c r="F11">
-        <v>32.58387487608768</v>
+        <v>24.07424867413082</v>
       </c>
       <c r="G11">
-        <v>32.99185168981735</v>
+        <v>23.38604240282686</v>
       </c>
       <c r="H11">
-        <v>214</v>
+        <v>1816</v>
       </c>
       <c r="I11">
-        <v>0.008486634739999652</v>
+        <v>0.646295544973771</v>
       </c>
       <c r="J11">
-        <v>501</v>
+        <v>1236</v>
       </c>
       <c r="K11">
-        <v>0.1693545933630577</v>
+        <v>3.025407548832427</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>1483</v>
       </c>
       <c r="M11">
-        <v>0.00082879018181999</v>
+        <v>1.867311348669714</v>
       </c>
       <c r="N11">
-        <v>3583</v>
+        <v>286</v>
       </c>
       <c r="O11">
-        <v>0.1420916461374708</v>
+        <v>0.1017844305410234</v>
       </c>
       <c r="P11">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>0.04428233878355401</v>
+        <v>0.08567092573554609</v>
       </c>
       <c r="R11">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="S11">
-        <v>0.04342860552736748</v>
+        <v>0.08814011760409977</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1322,58 +1322,58 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>13976</v>
+        <v>9831</v>
       </c>
       <c r="C15">
-        <v>1996</v>
+        <v>1677</v>
       </c>
       <c r="D15">
-        <v>3994</v>
+        <v>2552</v>
       </c>
       <c r="E15">
-        <v>95.58779336004579</v>
+        <v>96.22693520496389</v>
       </c>
       <c r="F15">
-        <v>93.86773547094188</v>
+        <v>91.87298747763865</v>
       </c>
       <c r="G15">
-        <v>95.45368052078118</v>
+        <v>92.9435736677116</v>
       </c>
       <c r="H15">
-        <v>1150</v>
+        <v>1338</v>
       </c>
       <c r="I15">
-        <v>0.08608203243421275</v>
+        <v>0.1414365855643774</v>
       </c>
       <c r="J15">
-        <v>782</v>
+        <v>850</v>
       </c>
       <c r="K15">
-        <v>0.4173783091374893</v>
+        <v>0.5516936996579499</v>
       </c>
       <c r="L15">
-        <v>592</v>
+        <v>856</v>
       </c>
       <c r="M15">
-        <v>0.1552819468998694</v>
+        <v>0.3608890687712908</v>
       </c>
       <c r="N15">
-        <v>3268</v>
+        <v>2372</v>
       </c>
       <c r="O15">
-        <v>0.2446226799956585</v>
+        <v>0.2507381023607648</v>
       </c>
       <c r="P15">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="Q15">
-        <v>0.2060204953031597</v>
+        <v>0.1901720635291521</v>
       </c>
       <c r="R15">
-        <v>698</v>
+        <v>429</v>
       </c>
       <c r="S15">
-        <v>0.1830858090136973</v>
+        <v>0.1808661337650511</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1440,58 +1440,58 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>35841</v>
+        <v>33976</v>
       </c>
       <c r="C17">
-        <v>5134</v>
+        <v>4947</v>
       </c>
       <c r="D17">
-        <v>10076</v>
+        <v>9816</v>
       </c>
       <c r="E17">
-        <v>138.1349571719539</v>
+        <v>143.0427360489757</v>
       </c>
       <c r="F17">
-        <v>131.9472146474484</v>
+        <v>135.3796240145543</v>
       </c>
       <c r="G17">
-        <v>138.3870583564907</v>
+        <v>140.4318459657702</v>
       </c>
       <c r="H17">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I17">
-        <v>0.004968798570763469</v>
+        <v>0.005082283612001597</v>
       </c>
       <c r="J17">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K17">
-        <v>0.03675727063241696</v>
+        <v>0.0377768122044487</v>
       </c>
       <c r="L17">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M17">
-        <v>0.01692498787998749</v>
+        <v>0.01719286256809135</v>
       </c>
       <c r="N17">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="O17">
-        <v>0.01407826261716316</v>
+        <v>0.0139917119682635</v>
       </c>
       <c r="P17">
         <v>89</v>
       </c>
       <c r="Q17">
-        <v>0.01313814090877554</v>
+        <v>0.01328907623002346</v>
       </c>
       <c r="R17">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S17">
-        <v>0.01843102493710502</v>
+        <v>0.01842610587466331</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1499,58 +1499,58 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>8702</v>
+        <v>6621</v>
       </c>
       <c r="C18">
-        <v>1240</v>
+        <v>1184</v>
       </c>
       <c r="D18">
-        <v>2492</v>
+        <v>2305</v>
       </c>
       <c r="E18">
-        <v>47.90197655711331</v>
+        <v>46.88385440265821</v>
       </c>
       <c r="F18">
-        <v>48.30483870967742</v>
+        <v>49.19847972972973</v>
       </c>
       <c r="G18">
-        <v>47.98876404494382</v>
+        <v>48.86290672451193</v>
       </c>
       <c r="H18">
-        <v>391</v>
+        <v>556</v>
       </c>
       <c r="I18">
-        <v>0.0938003037114693</v>
+        <v>0.1791133246139077</v>
       </c>
       <c r="J18">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="K18">
-        <v>0.8998631006043608</v>
+        <v>0.9373229644126281</v>
       </c>
       <c r="L18">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="M18">
-        <v>0.4682744088035589</v>
+        <v>0.5238437702545525</v>
       </c>
       <c r="N18">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="O18">
-        <v>0.06237360349100261</v>
+        <v>0.06346281465636658</v>
       </c>
       <c r="P18">
         <v>32</v>
       </c>
       <c r="Q18">
-        <v>0.0534241543958062</v>
+        <v>0.05493467923297454</v>
       </c>
       <c r="R18">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S18">
-        <v>0.05769809679900994</v>
+        <v>0.05859947260474656</v>
       </c>
     </row>
     <row r="19" spans="1:19">

--- a/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
@@ -555,58 +555,58 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4939</v>
+        <v>6444</v>
       </c>
       <c r="C2">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="D2">
-        <v>1412</v>
+        <v>1490</v>
       </c>
       <c r="E2">
-        <v>44.76918404535331</v>
+        <v>81.66977032898821</v>
       </c>
       <c r="F2">
-        <v>44.06666666666667</v>
+        <v>85.22020725388602</v>
       </c>
       <c r="G2">
-        <v>45.53611898016997</v>
+        <v>92.78120805369127</v>
       </c>
       <c r="H2">
-        <v>2292</v>
+        <v>3460</v>
       </c>
       <c r="I2">
-        <v>1.036564683535717</v>
+        <v>0.6574447062400244</v>
       </c>
       <c r="J2">
-        <v>1408</v>
+        <v>2510</v>
       </c>
       <c r="K2">
-        <v>4.532140213087843</v>
+        <v>3.815169478644171</v>
       </c>
       <c r="L2">
-        <v>1733</v>
+        <v>2766</v>
       </c>
       <c r="M2">
-        <v>2.695304602080968</v>
+        <v>2.000810161743005</v>
       </c>
       <c r="N2">
-        <v>194</v>
+        <v>1851</v>
       </c>
       <c r="O2">
-        <v>0.08773715035162699</v>
+        <v>0.3517139165463252</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="Q2">
-        <v>0.07081469082949754</v>
+        <v>0.3495972032223743</v>
       </c>
       <c r="R2">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="S2">
-        <v>0.09642751605829199</v>
+        <v>0.2929602731402448</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -791,58 +791,58 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>462</v>
+        <v>5936</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>767</v>
       </c>
       <c r="E6">
-        <v>59.61904761904762</v>
+        <v>155.2505053908356</v>
       </c>
       <c r="F6">
-        <v>58.27272727272727</v>
+        <v>96.18537859007833</v>
       </c>
       <c r="G6">
-        <v>56.81203007518797</v>
+        <v>96.77444589308996</v>
       </c>
       <c r="H6">
-        <v>857</v>
+        <v>1097</v>
       </c>
       <c r="I6">
-        <v>3.111385419692129</v>
+        <v>0.1190363804259484</v>
       </c>
       <c r="J6">
-        <v>348</v>
+        <v>785</v>
       </c>
       <c r="K6">
-        <v>9.048361934477379</v>
+        <v>2.13089388962784</v>
       </c>
       <c r="L6">
-        <v>510</v>
+        <v>990</v>
       </c>
       <c r="M6">
-        <v>6.749602964531498</v>
+        <v>1.333764449114865</v>
       </c>
       <c r="N6">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="O6">
-        <v>0.1924194016845774</v>
+        <v>0.01519151618927327</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>0.1300052002080083</v>
+        <v>0.08686446429056163</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="S6">
-        <v>0.1323451561672843</v>
+        <v>0.09834828766200523</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1086,58 +1086,58 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>11881</v>
+        <v>7926</v>
       </c>
       <c r="C11">
-        <v>1697</v>
+        <v>1132</v>
       </c>
       <c r="D11">
-        <v>3396</v>
+        <v>2266</v>
       </c>
       <c r="E11">
-        <v>23.65002945879976</v>
+        <v>52.47451425687611</v>
       </c>
       <c r="F11">
-        <v>24.07424867413082</v>
+        <v>52.47614840989399</v>
       </c>
       <c r="G11">
-        <v>23.38604240282686</v>
+        <v>51.96028243601059</v>
       </c>
       <c r="H11">
-        <v>1816</v>
+        <v>1862</v>
       </c>
       <c r="I11">
-        <v>0.646295544973771</v>
+        <v>0.4476897812763727</v>
       </c>
       <c r="J11">
-        <v>1236</v>
+        <v>1333</v>
       </c>
       <c r="K11">
-        <v>3.025407548832427</v>
+        <v>2.243994411056681</v>
       </c>
       <c r="L11">
-        <v>1483</v>
+        <v>1557</v>
       </c>
       <c r="M11">
-        <v>1.867311348669714</v>
+        <v>1.3223828370505</v>
       </c>
       <c r="N11">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1017844305410234</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.08567092573554609</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.08814011760409977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1145,58 +1145,58 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>1355</v>
+        <v>4432</v>
       </c>
       <c r="C12">
-        <v>199</v>
+        <v>633</v>
       </c>
       <c r="D12">
-        <v>397</v>
+        <v>1267</v>
       </c>
       <c r="E12">
-        <v>93.26125461254613</v>
+        <v>29.50676895306859</v>
       </c>
       <c r="F12">
-        <v>95.31658291457286</v>
+        <v>26.64296998420221</v>
       </c>
       <c r="G12">
-        <v>92.48866498740554</v>
+        <v>28.53433307024467</v>
       </c>
       <c r="H12">
-        <v>1704</v>
+        <v>2118</v>
       </c>
       <c r="I12">
-        <v>1.348431973031361</v>
+        <v>1.619587991496781</v>
       </c>
       <c r="J12">
-        <v>1215</v>
+        <v>1334</v>
       </c>
       <c r="K12">
-        <v>6.405525094896667</v>
+        <v>7.909872517047139</v>
       </c>
       <c r="L12">
-        <v>1320</v>
+        <v>1592</v>
       </c>
       <c r="M12">
-        <v>3.59496704613541</v>
+        <v>4.403507316128676</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O12">
-        <v>0.0118699997626</v>
+        <v>0.02752840778748069</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q12">
-        <v>0.01054407423028258</v>
+        <v>0.04743551734361103</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>0.005446919766871834</v>
+        <v>0.01659613310098747</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1263,58 +1263,58 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>3237</v>
+        <v>36000</v>
       </c>
       <c r="C14">
-        <v>463</v>
+        <v>1333</v>
       </c>
       <c r="D14">
-        <v>926</v>
+        <v>2667</v>
       </c>
       <c r="E14">
-        <v>44.17763361136855</v>
+        <v>26.3625</v>
       </c>
       <c r="F14">
-        <v>39.24190064794816</v>
+        <v>27.47861965491373</v>
       </c>
       <c r="G14">
-        <v>43.03887688984882</v>
+        <v>25.92688413948256</v>
       </c>
       <c r="H14">
-        <v>445</v>
+        <v>1095</v>
       </c>
       <c r="I14">
-        <v>0.3111822828891702</v>
+        <v>0.115378536431168</v>
       </c>
       <c r="J14">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="K14">
-        <v>2.790467279432</v>
+        <v>1.569794425182232</v>
       </c>
       <c r="L14">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="M14">
-        <v>1.124102975861896</v>
+        <v>0.7534672509291799</v>
       </c>
       <c r="N14">
-        <v>608</v>
+        <v>14830</v>
       </c>
       <c r="O14">
-        <v>0.4251659056103718</v>
+        <v>1.562615246825773</v>
       </c>
       <c r="P14">
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="Q14">
-        <v>0.2311629698937751</v>
+        <v>1.605285429577657</v>
       </c>
       <c r="R14">
-        <v>184</v>
+        <v>1140</v>
       </c>
       <c r="S14">
-        <v>0.4616851508004215</v>
+        <v>1.648661547138704</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1381,52 +1381,52 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>915</v>
+        <v>4486</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="E16">
-        <v>23.13879781420765</v>
+        <v>56.87895675434686</v>
       </c>
       <c r="F16">
-        <v>21.19047619047619</v>
+        <v>23.37142857142857</v>
       </c>
       <c r="G16">
-        <v>21.89655172413793</v>
+        <v>22.62085308056872</v>
       </c>
       <c r="H16">
-        <v>899</v>
+        <v>1597</v>
       </c>
       <c r="I16">
-        <v>4.246174192329492</v>
+        <v>0.6258842525640875</v>
       </c>
       <c r="J16">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="K16">
-        <v>42.69662921348314</v>
+        <v>22.6161369193154</v>
       </c>
       <c r="L16">
-        <v>507</v>
+        <v>690</v>
       </c>
       <c r="M16">
-        <v>19.96062992125984</v>
+        <v>14.45631678189818</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.009446438692612885</v>
+        <v>0.0003919124937783891</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.04074979625101875</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1440,58 +1440,58 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>33976</v>
+        <v>2468</v>
       </c>
       <c r="C17">
-        <v>4947</v>
+        <v>353</v>
       </c>
       <c r="D17">
-        <v>9816</v>
+        <v>706</v>
       </c>
       <c r="E17">
-        <v>143.0427360489757</v>
+        <v>30.46839546191248</v>
       </c>
       <c r="F17">
-        <v>135.3796240145543</v>
+        <v>28.72804532577904</v>
       </c>
       <c r="G17">
-        <v>140.4318459657702</v>
+        <v>32.78895184135978</v>
       </c>
       <c r="H17">
-        <v>247</v>
+        <v>479</v>
       </c>
       <c r="I17">
-        <v>0.005082283612001597</v>
+        <v>0.6370019681897974</v>
       </c>
       <c r="J17">
-        <v>253</v>
+        <v>527</v>
       </c>
       <c r="K17">
-        <v>0.0377768122044487</v>
+        <v>5.196726161128094</v>
       </c>
       <c r="L17">
-        <v>237</v>
+        <v>572</v>
       </c>
       <c r="M17">
-        <v>0.01719286256809135</v>
+        <v>2.470949069074258</v>
       </c>
       <c r="N17">
-        <v>680</v>
+        <v>624</v>
       </c>
       <c r="O17">
-        <v>0.0139917119682635</v>
+        <v>0.8298313740092558</v>
       </c>
       <c r="P17">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="Q17">
-        <v>0.01328907623002346</v>
+        <v>0.749432994773691</v>
       </c>
       <c r="R17">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="S17">
-        <v>0.01842610587466331</v>
+        <v>0.6350166313879648</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1617,58 +1617,58 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E20">
-        <v>51.05577689243028</v>
+        <v>54.32100840336135</v>
       </c>
       <c r="F20">
-        <v>65.27777777777777</v>
+        <v>52.83529411764706</v>
       </c>
       <c r="G20">
-        <v>49.98620689655172</v>
+        <v>57.8187134502924</v>
       </c>
       <c r="H20">
-        <v>896</v>
+        <v>1195</v>
       </c>
       <c r="I20">
-        <v>3.495903238392509</v>
+        <v>3.697286593855388</v>
       </c>
       <c r="J20">
-        <v>493</v>
+        <v>588</v>
       </c>
       <c r="K20">
-        <v>10.48936170212766</v>
+        <v>13.09285237140949</v>
       </c>
       <c r="L20">
-        <v>573</v>
+        <v>807</v>
       </c>
       <c r="M20">
-        <v>7.905629139072848</v>
+        <v>8.162233235561848</v>
       </c>
       <c r="N20">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O20">
-        <v>0.8037456106125634</v>
+        <v>0.727081464063612</v>
       </c>
       <c r="P20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Q20">
-        <v>1.021276595744681</v>
+        <v>0.6680026720106881</v>
       </c>
       <c r="R20">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="S20">
-        <v>0.8140176600441501</v>
+        <v>1.092343481339132</v>
       </c>
     </row>
   </sheetData>

--- a/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_mbert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>language</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>test_avg_tokens</t>
+  </si>
+  <si>
+    <t>train_longest</t>
+  </si>
+  <si>
+    <t>dev_longest</t>
+  </si>
+  <si>
+    <t>test_longest</t>
+  </si>
+  <si>
+    <t>train_shortest</t>
+  </si>
+  <si>
+    <t>dev_shortest</t>
+  </si>
+  <si>
+    <t>test_shortest</t>
   </si>
   <si>
     <t>train_hapaxes</t>
@@ -485,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +567,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>6444</v>
@@ -573,45 +609,63 @@
         <v>92.78120805369127</v>
       </c>
       <c r="H2">
+        <v>3819</v>
+      </c>
+      <c r="I2">
+        <v>3367</v>
+      </c>
+      <c r="J2">
+        <v>3089</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
         <v>3460</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.6574447062400244</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>2510</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>3.815169478644171</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>2766</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>2.000810161743005</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>1851</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>0.3517139165463252</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>230</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>0.3495972032223743</v>
       </c>
-      <c r="R2">
+      <c r="X2">
         <v>405</v>
       </c>
-      <c r="S2">
+      <c r="Y2">
         <v>0.2929602731402448</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1029</v>
@@ -632,45 +686,63 @@
         <v>24.3277027027027</v>
       </c>
       <c r="H3">
+        <v>166</v>
+      </c>
+      <c r="I3">
+        <v>104</v>
+      </c>
+      <c r="J3">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
         <v>1414</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>5.890439491772547</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>578</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>16.99500147015584</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>876</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>12.16497708651576</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>0.02082899395959175</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="X3">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3560</v>
@@ -691,45 +763,63 @@
         <v>35.40307101727447</v>
       </c>
       <c r="H4">
+        <v>404</v>
+      </c>
+      <c r="I4">
+        <v>325</v>
+      </c>
+      <c r="J4">
+        <v>411</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>1479</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.224702725977941</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>991</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>5.788213305297588</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>1147</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>3.109243697478992</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>140</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>0.1159285879897983</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>28</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>0.1635418491910519</v>
       </c>
-      <c r="R4">
+      <c r="X4">
         <v>51</v>
       </c>
-      <c r="S4">
+      <c r="Y4">
         <v>0.1382488479262673</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2675</v>
@@ -750,45 +840,63 @@
         <v>30.35251798561151</v>
       </c>
       <c r="H5">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5">
+        <v>91</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
         <v>2725</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>3.433719758064516</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>1591</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>10.27114267269206</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>1365</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>10.78454610097179</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>112</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>0.1411290322580645</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>31</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>0.2001291155584248</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>29</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
         <v>0.229122224855811</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5936</v>
@@ -809,45 +917,63 @@
         <v>96.77444589308996</v>
       </c>
       <c r="H6">
+        <v>2254</v>
+      </c>
+      <c r="I6">
+        <v>495</v>
+      </c>
+      <c r="J6">
+        <v>442</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
         <v>1097</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.1190363804259484</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>785</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>2.13089388962784</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>990</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>1.333764449114865</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>140</v>
       </c>
-      <c r="O6">
+      <c r="U6">
         <v>0.01519151618927327</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>32</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>0.08686446429056163</v>
       </c>
-      <c r="R6">
+      <c r="X6">
         <v>73</v>
       </c>
-      <c r="S6">
+      <c r="Y6">
         <v>0.09834828766200523</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>12348</v>
@@ -868,45 +994,63 @@
         <v>80.28043300653594</v>
       </c>
       <c r="H7">
+        <v>2878</v>
+      </c>
+      <c r="I7">
+        <v>2791</v>
+      </c>
+      <c r="J7">
+        <v>847</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
         <v>1241</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.1243632770575308</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>931</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>0.4549852899492723</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>1074</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>0.2732455928335364</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>4477</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>0.4486497916088359</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>1018</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <v>0.4975027123183235</v>
       </c>
-      <c r="R7">
+      <c r="X7">
         <v>1549</v>
       </c>
-      <c r="S7">
+      <c r="Y7">
         <v>0.3940944351016275</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>2384</v>
@@ -927,45 +1071,63 @@
         <v>37.43503649635036</v>
       </c>
       <c r="H8">
+        <v>478</v>
+      </c>
+      <c r="I8">
+        <v>476</v>
+      </c>
+      <c r="J8">
+        <v>826</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
         <v>1026</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1.203730861735203</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>732</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>5.400221320545924</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>797</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>3.108060679327691</v>
       </c>
-      <c r="N8">
+      <c r="T8">
         <v>384</v>
       </c>
-      <c r="O8">
+      <c r="U8">
         <v>0.4505191529301343</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>51</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
         <v>0.3762449280708226</v>
       </c>
-      <c r="R8">
+      <c r="X8">
         <v>60</v>
       </c>
-      <c r="S8">
+      <c r="Y8">
         <v>0.2339819833872792</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8103</v>
@@ -986,45 +1148,63 @@
         <v>56.36689419795222</v>
       </c>
       <c r="H9">
+        <v>1103</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>1336</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>1445</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>0.3378583753805291</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>597</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>0.9193667611186399</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>894</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>0.6766370984832429</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>1384</v>
       </c>
-      <c r="O9">
+      <c r="U9">
         <v>0.3235958418869566</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>193</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <v>0.2972157200936307</v>
       </c>
-      <c r="R9">
+      <c r="X9">
         <v>390</v>
       </c>
-      <c r="S9">
+      <c r="Y9">
         <v>0.2951772577275892</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>28204</v>
@@ -1045,45 +1225,63 @@
         <v>152.239596186203</v>
       </c>
       <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <v>250</v>
+      </c>
+      <c r="J10">
+        <v>250</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
         <v>2849</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>0.06660354642260173</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>1833</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>0.271252957811508</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>2180</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>0.1606229222172447</v>
       </c>
-      <c r="N10">
+      <c r="T10">
         <v>67628</v>
       </c>
-      <c r="O10">
+      <c r="U10">
         <v>1.580998468749635</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>10728</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>1.587562319368172</v>
       </c>
-      <c r="R10">
+      <c r="X10">
         <v>21588</v>
       </c>
-      <c r="S10">
+      <c r="Y10">
         <v>1.590609011388018</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>7926</v>
@@ -1104,45 +1302,63 @@
         <v>51.96028243601059</v>
       </c>
       <c r="H11">
+        <v>176</v>
+      </c>
+      <c r="I11">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>146</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>1862</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>0.4476897812763727</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>1333</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>2.243994411056681</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>1557</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>1.3223828370505</v>
       </c>
-      <c r="N11">
+      <c r="T11">
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="W11">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="X11">
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="Y11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>4432</v>
@@ -1163,45 +1379,63 @@
         <v>28.53433307024467</v>
       </c>
       <c r="H12">
+        <v>3276</v>
+      </c>
+      <c r="I12">
+        <v>671</v>
+      </c>
+      <c r="J12">
+        <v>1254</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>2118</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1.619587991496781</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>1334</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>7.909872517047139</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>1592</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>4.403507316128676</v>
       </c>
-      <c r="N12">
+      <c r="T12">
         <v>36</v>
       </c>
-      <c r="O12">
+      <c r="U12">
         <v>0.02752840778748069</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>8</v>
       </c>
-      <c r="Q12">
+      <c r="W12">
         <v>0.04743551734361103</v>
       </c>
-      <c r="R12">
+      <c r="X12">
         <v>6</v>
       </c>
-      <c r="S12">
+      <c r="Y12">
         <v>0.01659613310098747</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>789</v>
@@ -1222,45 +1456,63 @@
         <v>20.68281938325991</v>
       </c>
       <c r="H13">
+        <v>146</v>
+      </c>
+      <c r="I13">
+        <v>74</v>
+      </c>
+      <c r="J13">
+        <v>79</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
         <v>851</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>5.028362089340582</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>461</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>19.47613012251795</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>607</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>12.92864749733759</v>
       </c>
-      <c r="N13">
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="U13">
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="W13">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="X13">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>36000</v>
@@ -1281,45 +1533,63 @@
         <v>25.92688413948256</v>
       </c>
       <c r="H14">
+        <v>142</v>
+      </c>
+      <c r="I14">
+        <v>114</v>
+      </c>
+      <c r="J14">
+        <v>112</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
         <v>1095</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>0.115378536431168</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>575</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>1.569794425182232</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>521</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>0.7534672509291799</v>
       </c>
-      <c r="N14">
+      <c r="T14">
         <v>14830</v>
       </c>
-      <c r="O14">
+      <c r="U14">
         <v>1.562615246825773</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>588</v>
       </c>
-      <c r="Q14">
+      <c r="W14">
         <v>1.605285429577657</v>
       </c>
-      <c r="R14">
+      <c r="X14">
         <v>1140</v>
       </c>
-      <c r="S14">
+      <c r="Y14">
         <v>1.648661547138704</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>9831</v>
@@ -1340,45 +1610,63 @@
         <v>92.9435736677116</v>
       </c>
       <c r="H15">
+        <v>866</v>
+      </c>
+      <c r="I15">
+        <v>789</v>
+      </c>
+      <c r="J15">
+        <v>767</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
         <v>1338</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>0.1414365855643774</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>850</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>0.5516936996579499</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>856</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>0.3608890687712908</v>
       </c>
-      <c r="N15">
+      <c r="T15">
         <v>2372</v>
       </c>
-      <c r="O15">
+      <c r="U15">
         <v>0.2507381023607648</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>293</v>
       </c>
-      <c r="Q15">
+      <c r="W15">
         <v>0.1901720635291521</v>
       </c>
-      <c r="R15">
+      <c r="X15">
         <v>429</v>
       </c>
-      <c r="S15">
+      <c r="Y15">
         <v>0.1808661337650511</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4486</v>
@@ -1399,45 +1687,63 @@
         <v>22.62085308056872</v>
       </c>
       <c r="H16">
+        <v>635</v>
+      </c>
+      <c r="I16">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>122</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
         <v>1597</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>0.6258842525640875</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>555</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>22.6161369193154</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>690</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>14.45631678189818</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="U16">
         <v>0.0003919124937783891</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="W16">
         <v>0.04074979625101875</v>
       </c>
-      <c r="R16">
+      <c r="X16">
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="Y16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2468</v>
@@ -1458,45 +1764,63 @@
         <v>32.78895184135978</v>
       </c>
       <c r="H17">
+        <v>406</v>
+      </c>
+      <c r="I17">
+        <v>148</v>
+      </c>
+      <c r="J17">
+        <v>957</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
         <v>479</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>0.6370019681897974</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>527</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>5.196726161128094</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>572</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>2.470949069074258</v>
       </c>
-      <c r="N17">
+      <c r="T17">
         <v>624</v>
       </c>
-      <c r="O17">
+      <c r="U17">
         <v>0.8298313740092558</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>76</v>
       </c>
-      <c r="Q17">
+      <c r="W17">
         <v>0.749432994773691</v>
       </c>
-      <c r="R17">
+      <c r="X17">
         <v>147</v>
       </c>
-      <c r="S17">
+      <c r="Y17">
         <v>0.6350166313879648</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>6621</v>
@@ -1517,45 +1841,63 @@
         <v>48.86290672451193</v>
       </c>
       <c r="H18">
+        <v>2224</v>
+      </c>
+      <c r="I18">
+        <v>1549</v>
+      </c>
+      <c r="J18">
+        <v>1169</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
         <v>556</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>0.1791133246139077</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>546</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>0.9373229644126281</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>590</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>0.5238437702545525</v>
       </c>
-      <c r="N18">
+      <c r="T18">
         <v>197</v>
       </c>
-      <c r="O18">
+      <c r="U18">
         <v>0.06346281465636658</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>32</v>
       </c>
-      <c r="Q18">
+      <c r="W18">
         <v>0.05493467923297454</v>
       </c>
-      <c r="R18">
+      <c r="X18">
         <v>66</v>
       </c>
-      <c r="S18">
+      <c r="Y18">
         <v>0.05859947260474656</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>564</v>
@@ -1576,45 +1918,63 @@
         <v>29.73913043478261</v>
       </c>
       <c r="H19">
+        <v>177</v>
+      </c>
+      <c r="I19">
+        <v>114</v>
+      </c>
+      <c r="J19">
+        <v>107</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
         <v>389</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2.137362637362637</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>220</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>9.653356735410268</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>220</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>8.040935672514619</v>
       </c>
-      <c r="N19">
+      <c r="T19">
         <v>71</v>
       </c>
-      <c r="O19">
+      <c r="U19">
         <v>0.3901098901098901</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>5</v>
       </c>
-      <c r="Q19">
+      <c r="W19">
         <v>0.2193944712593243</v>
       </c>
-      <c r="R19">
+      <c r="X19">
         <v>4</v>
       </c>
-      <c r="S19">
+      <c r="Y19">
         <v>0.1461988304093567</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>595</v>
@@ -1635,39 +1995,57 @@
         <v>57.8187134502924</v>
       </c>
       <c r="H20">
+        <v>678</v>
+      </c>
+      <c r="I20">
+        <v>257</v>
+      </c>
+      <c r="J20">
+        <v>846</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>1195</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>3.697286593855388</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>588</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>13.09285237140949</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>807</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>8.162233235561848</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <v>235</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <v>0.727081464063612</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>30</v>
       </c>
-      <c r="Q20">
+      <c r="W20">
         <v>0.6680026720106881</v>
       </c>
-      <c r="R20">
+      <c r="X20">
         <v>108</v>
       </c>
-      <c r="S20">
+      <c r="Y20">
         <v>1.092343481339132</v>
       </c>
     </row>
